--- a/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
+++ b/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,78 +532,166 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bags 3,4</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 7,8,SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -633,8 +721,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -656,51 +752,27 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -709,7 +781,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -717,7 +789,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +797,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -733,7 +805,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +813,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -749,7 +821,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -760,7 +832,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -768,7 +840,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -776,7 +848,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -784,7 +856,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -792,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -800,7 +872,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -811,7 +883,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2826 S KINNICKINNC AVE</t>
+          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -819,7 +891,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -827,7 +899,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17295 WEST CAPITOL DR</t>
+          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -835,7 +907,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #507 +RX, CHICAGO-N ELSTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -843,7 +915,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -851,7 +923,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #213, CAMPBELLSPORT</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -862,7 +934,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
+          <t>2826 S KINNICKINNC AVE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -870,7 +942,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -878,7 +950,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
+          <t>17295 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -886,7 +958,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5353 NORTH ELSTON</t>
+          <t>MARIANO'S #507 +RX, CHICAGO-N ELSTON</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -894,7 +966,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -902,7 +974,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>450 GRANDVIEW AVE</t>
+          <t>PIGGLY WIGGLY #213, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -911,13 +983,17 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -925,7 +1001,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SET UP REG #1</t>
+          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -933,7 +1009,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wZJz34jYPVB2</t>
+          <t>5353 NORTH ELSTON</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -941,7 +1017,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP REG #1</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -949,7 +1025,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MMuxov4fCx22</t>
+          <t>450 GRANDVIEW AVE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -957,38 +1033,30 @@
       <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SET UP REG #1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP REG #5</t>
+          <t>https://goo.gl/maps/wZJz34jYPVB2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -996,13 +1064,17 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP REG #1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MMuxov4fCx22</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1010,75 +1082,63 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SET UP REG #5</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1086,78 +1146,62 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1165,75 +1209,78 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1241,135 +1288,144 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>3)</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>Driver,
 Red Van</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NO LONGER COUNT CIGS &amp; LOTTO</t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1382,50 +1438,45 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO LONGER COUNT CIGS &amp; LOTTO</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1st Scan,
-work w/ Michael</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2nd Scan, work w/ Angela</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1436,12 +1487,12 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1450,71 +1501,72 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1st Scan,
+work w/ Michael</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Angela</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>6)</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1523,63 +1575,59 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1598,23 +1646,35 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MEQUON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1625,28 +1685,24 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1656,11 +1712,7 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1669,7 +1721,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7590 W MEQUON RD</t>
+          <t>OUTPOST NATURAL FOODS, MEQUON</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1680,29 +1732,28 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1713,12 +1764,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1730,7 +1781,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">5:00 AM MEET WATERTOWN PLANK </t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1741,60 +1792,56 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/do2xmdVUL8z</t>
+          <t>7590 W MEQUON RD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1806,7 +1853,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1815,25 +1862,29 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/do2xmdVUL8z</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1844,41 +1895,41 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #328, FOND DU LAC</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1886,38 +1937,26 @@
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1174 WALWORTH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1928,12 +1967,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1944,24 +1983,25 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>131 UNIVERSITY AVE</t>
+          <t>PIGGLY WIGGLY #328, FOND DU LAC</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1971,36 +2011,36 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>525 KENOSHA ST, SUITE C</t>
+          <t>AURORA OUTPATIENT RX #1174 WALWORTH</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2011,12 +2051,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2027,12 +2067,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2044,7 +2084,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QmMfhkkrDpNxyhyC8</t>
+          <t>131 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2054,12 +2094,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2071,19 +2111,19 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HYXAm9E8G2X4pAUGA</t>
+          <t>525 KENOSHA ST, SUITE C</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2094,12 +2134,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2110,12 +2150,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2125,7 +2165,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/QmMfhkkrDpNxyhyC8</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2133,12 +2177,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2148,150 +2192,130 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HYXAm9E8G2X4pAUGA</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>16)</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Michael N</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>15)</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>@ Store,
 Rx</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2302,155 +2326,203 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>Driver,
 Optima</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2464,11 +2536,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2477,12 +2545,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2493,17 +2561,17 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Lashaun</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2511,54 +2579,54 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd week, work w/ Lashaun</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2568,7 +2636,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2576,7 +2644,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2584,7 +2652,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2592,7 +2660,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2603,17 +2671,17 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store, 3rd Pig, work w/ Lashaun</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2623,7 +2691,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2631,7 +2699,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2639,7 +2707,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>EAST SIDE MART, JACKSON</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2647,32 +2715,28 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT BAYSHORE PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 3rd Pig, work w/ Lashaun</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2682,7 +2746,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2690,7 +2754,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2698,7 +2762,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N168 W1940 MAIN ST</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2706,7 +2770,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>919 BARSTOW STREET</t>
+          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2714,24 +2778,24 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET AT BAYSHORE PARK AND RIDE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store, Until 1:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2741,7 +2805,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2749,7 +2813,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2757,7 +2821,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2765,7 +2829,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
+          <t>919 BARSTOW STREET</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2773,26 +2837,42 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Until 1:15</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2800,7 +2880,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2808,7 +2888,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
+          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2816,7 +2896,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2828,52 +2908,44 @@
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>APPROX 10:30/11:30 AM START</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2151 S 42ND ST</t>
+          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2881,61 +2953,40 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
+          <t>2151 S 42ND ST</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2943,7 +2994,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2953,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2969,40 +3020,49 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>5:30 am meet for DJ and Carlie at the Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3010,7 +3070,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>WITTENBERG SENTRY - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3020,7 +3080,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3034,38 +3094,50 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>5:30 am meet for DJ and Carlie at the Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>110 S MISSION ST</t>
+          <t>WITTENBERG SENTRY - LIFO</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3075,7 +3147,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3094,42 +3166,33 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TQYGGNVSpauBn1Su5</t>
+          <t>110 S MISSION ST</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3139,7 +3202,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3154,53 +3217,48 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>Ian</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gold Camry, Equip</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>(w/ DJ),
-Trainer</t>
+          <t>@ Store,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TQYGGNVSpauBn1Su5</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3208,7 +3266,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3225,24 +3283,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3252,36 +3311,24 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store 
-(w/ Carlie)</t>
+          <t>(w/ DJ),
+Trainer</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3293,53 +3340,61 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store 
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store w/ Michelle</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3353,7 +3408,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HUSTIS, HUSTISFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3365,36 +3420,41 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Michelle</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3412,48 +3472,48 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>326 W JUNEAU ST</t>
+          <t>DHILLON'S STATION HUSTIS, HUSTISFORD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver </t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3471,7 +3531,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+          <t>326 W JUNEAU ST</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3479,7 +3539,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3490,34 +3550,29 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>meet Michelle 6:15 @ Point Target</t>
+          <t xml:space="preserve">Driver </t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3533,11 +3588,19 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3546,23 +3609,36 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Carlie</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>meet Michelle 6:15 @ Point Target</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3575,21 +3651,9 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store, Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3601,15 +3665,19 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3628,17 +3696,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Sante Fe, Equip</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3652,12 +3720,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3675,12 +3743,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3699,12 +3767,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3734,12 +3802,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3758,12 +3826,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3787,9 +3855,21 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3799,8 +3879,16 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3862,11 +3950,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3907,7 +3991,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3950,7 +4034,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3981,7 +4065,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -4012,7 +4096,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -4043,7 +4127,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -4074,7 +4158,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PLEASE RUN MEAT AND SEAFOOD TOTAL REPORTS SEPARATE FOR MGR WHEN PRINTING</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -4103,7 +4187,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PLEASE RUN MEAT AND SEAFOOD TOTAL REPORTS SEPARATE FOR MGR WHEN PRINTING</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -4129,21 +4217,9 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4170,15 +4246,19 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4205,12 +4285,12 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4240,12 +4320,12 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4275,12 +4355,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4303,6 +4383,41 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
+++ b/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +733,11 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Optima maintenance scheduled</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1679,7 +1683,8 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1702,12 +1707,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, work w/ Michael</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1769,7 +1775,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1830,7 +1836,8 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1841,7 +1848,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1884,12 +1891,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Scan, work w/ Angela</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1917,7 +1925,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1956,7 +1964,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1972,12 +1980,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan, work w/ Anisha</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1988,13 +1997,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2040,7 +2048,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2056,7 +2064,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2072,12 +2080,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2139,7 +2148,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2155,7 +2164,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2206,7 +2215,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2222,7 +2231,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2238,7 +2247,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2281,131 +2290,131 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>Michael N</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>@ Store,
 Rx</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2414,7 +2423,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2475,9 +2484,21 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2486,7 +2507,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2502,13 +2523,13 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2539,9 +2560,21 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2550,12 +2583,13 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -2605,7 +2639,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2658,16 +2692,24 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2676,12 +2718,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 3rd Pig, work w/ Lashaun</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2715,7 +2757,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2731,12 +2773,12 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store, 3rd Pig, work w/ Lashaun</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2770,17 +2812,13 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT BAYSHORE PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2790,12 +2828,12 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 1:15</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2829,7 +2867,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>919 BARSTOW STREET</t>
+          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2837,7 +2875,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET AT BAYSHORE PARK AND RIDE</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2849,12 +2887,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store, Until 1:15</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2888,7 +2926,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
+          <t>919 BARSTOW STREET</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2896,7 +2934,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2931,7 +2969,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
+          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2939,7 +2977,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2980,13 +3018,17 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2151 S 42ND ST</t>
+          <t>FESTIVAL #2702, MANITOWOC - LIFO</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -3043,26 +3085,14 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
+          <t>2151 S 42ND ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3116,20 +3146,24 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>5:30 am meet for DJ and Carlie at the Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/ynTuKFekbGQ2</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3175,18 +3209,22 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>5:30 am meet for DJ and Carlie at the Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3226,32 +3264,19 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3305,24 +3330,32 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>(w/ DJ),
-Trainer</t>
+          <t>@ Store,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3367,18 +3400,18 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store 
-(w/ Carlie)</t>
+          <t>(w/ DJ),
+Trainer</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3418,27 +3451,23 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store 
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3484,22 +3513,27 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -3545,17 +3579,21 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3609,20 +3647,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3665,17 +3698,18 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Carlie</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3720,15 +3754,19 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3767,12 +3805,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3826,12 +3864,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3862,7 +3900,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3881,12 +3919,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3908,11 +3946,27 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Until 10:45</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3922,8 +3976,16 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3989,11 +4051,7 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -4034,7 +4092,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4065,7 +4123,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -4088,336 +4146,6 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>6700 W STATE ST</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>*PERISHABLE INVENTORY</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>PLEASE RUN MEAT AND SEAFOOD TOTAL REPORTS SEPARATE FOR MGR WHEN PRINTING</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
+++ b/09-29-24 to 10-05-24 Milwaukee Schedule.xlsx
@@ -626,7 +626,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bag 1</t>
+          <t>Bag 6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -721,16 +721,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bags 5,6</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
@@ -1480,12 +1472,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>1st Day, work w/ Michael</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1552,7 +1544,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1631,7 +1623,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1678,13 +1670,13 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>1st Day,
+work w/ Michael</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1707,13 +1699,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd Scan, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1743,12 +1734,13 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1775,12 +1767,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, work w/ Michael</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1814,13 +1807,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1848,7 +1840,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1891,13 +1883,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>@ Store,
-1st Scan, work w/ Angela</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1925,7 +1917,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1964,12 +1956,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Bonnie</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Scan, work w/ Angela</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1997,7 +1990,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2048,7 +2041,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2080,13 +2073,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2132,7 +2124,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2164,12 +2156,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2215,7 +2208,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2290,7 +2283,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2389,116 +2382,116 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>Michael N</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>@ Store,
 Trainer</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
@@ -2507,7 +2500,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2556,25 +2549,25 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2621,11 +2614,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2684,15 +2673,15 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2749,7 +2738,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2757,7 +2746,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2804,7 +2793,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>EAST SIDE MART, JACKSON</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2812,7 +2801,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2859,7 +2848,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N168 W1940 MAIN ST</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2867,7 +2856,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DISCOUNT LIQUOR INC, WAUKESHA</t>
+          <t>919 BARSTOW STREET</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2918,7 +2907,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2926,7 +2915,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>919 BARSTOW STREET</t>
+          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2961,7 +2950,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2969,7 +2958,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RuwqvtzHkfSrHftD6</t>
+          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -3012,17 +3001,13 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>EXCEL-FINANCIAL</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>LAST INVENTORY STORE COUNTED ALL CIGARETTES, TOBACCO &amp; LIQUOR MINIS</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -3080,14 +3065,26 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>APPROX 10:30/11:30 AM START</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -3139,26 +3136,22 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>EXCEL-FINANCIAL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -3202,19 +3195,19 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3259,17 +3252,21 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3313,33 +3310,16 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -3378,21 +3358,9 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -3446,12 +3414,29 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -3506,14 +3491,26 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3571,19 +3568,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3634,11 +3623,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3689,7 +3674,11 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3709,7 +3698,8 @@
       <c r="S53" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Gold Camry,
+Trainer</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3745,7 +3735,11 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3764,7 +3758,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Carlie</t>
+          <t>2nd week, work w/ Lashaun</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -4023,9 +4017,21 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>1st Financial, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
